--- a/Sep19/pos_gains_and_pos_prof/Tables/region.xlsx
+++ b/Sep19/pos_gains_and_pos_prof/Tables/region.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="20">
   <si>
     <t>Model</t>
   </si>
@@ -23,6 +23,9 @@
   </si>
   <si>
     <t>M_ETR</t>
+  </si>
+  <si>
+    <t>M_PL</t>
   </si>
   <si>
     <t>GFA - Sales</t>
@@ -428,13 +431,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q10"/>
+  <dimension ref="A1:Y10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:25">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -456,68 +459,102 @@
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
+      <c r="R1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="R2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="Y2" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:25">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:25">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4">
         <v>0.6001435396859511</v>
@@ -567,10 +604,34 @@
       <c r="Q4">
         <v>0.2817003622147342</v>
       </c>
+      <c r="R4">
+        <v>40382619918</v>
+      </c>
+      <c r="S4">
+        <v>37273404592</v>
+      </c>
+      <c r="T4">
+        <v>30235087160</v>
+      </c>
+      <c r="U4">
+        <v>37431807140</v>
+      </c>
+      <c r="V4">
+        <v>66677809103</v>
+      </c>
+      <c r="W4">
+        <v>66677809103</v>
+      </c>
+      <c r="X4">
+        <v>66677809103</v>
+      </c>
+      <c r="Y4">
+        <v>66677809103</v>
+      </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:25">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5">
         <v>3.878957364842372</v>
@@ -620,10 +681,34 @@
       <c r="Q5">
         <v>0.3152860901172511</v>
       </c>
+      <c r="R5">
+        <v>68341277913</v>
+      </c>
+      <c r="S5">
+        <v>68607173698</v>
+      </c>
+      <c r="T5">
+        <v>66666309306</v>
+      </c>
+      <c r="U5">
+        <v>66917200922</v>
+      </c>
+      <c r="V5">
+        <v>75243181211</v>
+      </c>
+      <c r="W5">
+        <v>75243181211</v>
+      </c>
+      <c r="X5">
+        <v>75243181211</v>
+      </c>
+      <c r="Y5">
+        <v>75243181211</v>
+      </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:25">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6">
         <v>5.289900795406171</v>
@@ -673,10 +758,34 @@
       <c r="Q6">
         <v>0.4998438009888689</v>
       </c>
+      <c r="R6">
+        <v>16282609381</v>
+      </c>
+      <c r="S6">
+        <v>16245802182</v>
+      </c>
+      <c r="T6">
+        <v>15485301894</v>
+      </c>
+      <c r="U6">
+        <v>16245802182</v>
+      </c>
+      <c r="V6">
+        <v>21419969152</v>
+      </c>
+      <c r="W6">
+        <v>21419969152</v>
+      </c>
+      <c r="X6">
+        <v>21419969152</v>
+      </c>
+      <c r="Y6">
+        <v>21419969152</v>
+      </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:25">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7">
         <v>0.8932083238123367</v>
@@ -726,10 +835,34 @@
       <c r="Q7">
         <v>0.4128985902826828</v>
       </c>
+      <c r="R7">
+        <v>1403512928</v>
+      </c>
+      <c r="S7">
+        <v>1403512928</v>
+      </c>
+      <c r="T7">
+        <v>1403512928</v>
+      </c>
+      <c r="U7">
+        <v>1403512928</v>
+      </c>
+      <c r="V7">
+        <v>6471301295</v>
+      </c>
+      <c r="W7">
+        <v>6471301295</v>
+      </c>
+      <c r="X7">
+        <v>6471301295</v>
+      </c>
+      <c r="Y7">
+        <v>6471301295</v>
+      </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:25">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8">
         <v>5.877433505740076</v>
@@ -779,10 +912,34 @@
       <c r="Q8">
         <v>0.2048529706690015</v>
       </c>
+      <c r="R8">
+        <v>885447038872</v>
+      </c>
+      <c r="S8">
+        <v>885447038872</v>
+      </c>
+      <c r="T8">
+        <v>885447038872</v>
+      </c>
+      <c r="U8">
+        <v>885447038872</v>
+      </c>
+      <c r="V8">
+        <v>885447038872</v>
+      </c>
+      <c r="W8">
+        <v>885447038872</v>
+      </c>
+      <c r="X8">
+        <v>885447038872</v>
+      </c>
+      <c r="Y8">
+        <v>885447038872</v>
+      </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:25">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C9">
         <v>656.8122986162234</v>
@@ -820,10 +977,28 @@
       <c r="Q9">
         <v>0.3411401792246058</v>
       </c>
+      <c r="S9">
+        <v>12096909667</v>
+      </c>
+      <c r="U9">
+        <v>12096909667</v>
+      </c>
+      <c r="V9">
+        <v>12956669707</v>
+      </c>
+      <c r="W9">
+        <v>12956669707</v>
+      </c>
+      <c r="X9">
+        <v>12956669707</v>
+      </c>
+      <c r="Y9">
+        <v>12956669707</v>
+      </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:25">
       <c r="A10" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B10">
         <v>1.984783575357343</v>
@@ -873,11 +1048,36 @@
       <c r="Q10">
         <v>0.8445431388982493</v>
       </c>
+      <c r="R10">
+        <v>1986738567</v>
+      </c>
+      <c r="S10">
+        <v>1195614519</v>
+      </c>
+      <c r="T10">
+        <v>1986738567</v>
+      </c>
+      <c r="U10">
+        <v>2032015673</v>
+      </c>
+      <c r="V10">
+        <v>2539331704</v>
+      </c>
+      <c r="W10">
+        <v>2539331704</v>
+      </c>
+      <c r="X10">
+        <v>2539331704</v>
+      </c>
+      <c r="Y10">
+        <v>2539331704</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="B1:I1"/>
     <mergeCell ref="J1:Q1"/>
+    <mergeCell ref="R1:Y1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Sep19/pos_gains_and_pos_prof/Tables/region.xlsx
+++ b/Sep19/pos_gains_and_pos_prof/Tables/region.xlsx
@@ -34,16 +34,16 @@
     <t>GFA - Sales + Emp</t>
   </si>
   <si>
+    <t>IMF (20%) - Sales</t>
+  </si>
+  <si>
+    <t>IMF (20%) - Sales + Emp</t>
+  </si>
+  <si>
     <t>IMF - Sales</t>
   </si>
   <si>
     <t>IMF - Sales + Emp</t>
-  </si>
-  <si>
-    <t>OECD (20%) - Sales</t>
-  </si>
-  <si>
-    <t>OECD (20%) - Sales + Emp</t>
   </si>
   <si>
     <t>OECD - Sales</t>
@@ -563,16 +563,16 @@
         <v>1.67121259218078</v>
       </c>
       <c r="D4">
+        <v>0.1442535571439624</v>
+      </c>
+      <c r="E4">
+        <v>0.2862580632476772</v>
+      </c>
+      <c r="F4">
         <v>0.7212677857198116</v>
       </c>
-      <c r="E4">
+      <c r="G4">
         <v>1.431290316238386</v>
-      </c>
-      <c r="F4">
-        <v>0.1044212613134546</v>
-      </c>
-      <c r="G4">
-        <v>0.14421010013623</v>
       </c>
       <c r="H4">
         <v>0.5221063065672733</v>
@@ -593,10 +593,10 @@
         <v>0.2982077124743382</v>
       </c>
       <c r="N4">
-        <v>0.2817003622147342</v>
+        <v>0.3248011131580942</v>
       </c>
       <c r="O4">
-        <v>0.2817003622147342</v>
+        <v>0.2982077124743382</v>
       </c>
       <c r="P4">
         <v>0.2817003622147342</v>
@@ -617,10 +617,10 @@
         <v>37431807140</v>
       </c>
       <c r="V4">
-        <v>66677809103</v>
+        <v>30235087160</v>
       </c>
       <c r="W4">
-        <v>66677809103</v>
+        <v>37431807140</v>
       </c>
       <c r="X4">
         <v>66677809103</v>
@@ -640,16 +640,16 @@
         <v>4.335630184562929</v>
       </c>
       <c r="D5">
+        <v>0.6761226210377156</v>
+      </c>
+      <c r="E5">
+        <v>0.7404358172653206</v>
+      </c>
+      <c r="F5">
         <v>3.380613105188575</v>
       </c>
-      <c r="E5">
+      <c r="G5">
         <v>3.702179086326601</v>
-      </c>
-      <c r="F5">
-        <v>0.3757258950799319</v>
-      </c>
-      <c r="G5">
-        <v>0.4006742562880199</v>
       </c>
       <c r="H5">
         <v>1.878629475399659</v>
@@ -670,10 +670,10 @@
         <v>0.2955367085519889</v>
       </c>
       <c r="N5">
-        <v>0.3152860901172511</v>
+        <v>0.2960286019796783</v>
       </c>
       <c r="O5">
-        <v>0.3152860901172511</v>
+        <v>0.2955367085519889</v>
       </c>
       <c r="P5">
         <v>0.3152860901172511</v>
@@ -694,10 +694,10 @@
         <v>66917200922</v>
       </c>
       <c r="V5">
-        <v>75243181211</v>
+        <v>66666309306</v>
       </c>
       <c r="W5">
-        <v>75243181211</v>
+        <v>66917200922</v>
       </c>
       <c r="X5">
         <v>75243181211</v>
@@ -717,16 +717,16 @@
         <v>13.43743147231456</v>
       </c>
       <c r="D6">
+        <v>1.054230044300623</v>
+      </c>
+      <c r="E6">
+        <v>2.123036393002244</v>
+      </c>
+      <c r="F6">
         <v>5.271150221503113</v>
       </c>
-      <c r="E6">
+      <c r="G6">
         <v>10.61518196501122</v>
-      </c>
-      <c r="F6">
-        <v>0.4258168738517515</v>
-      </c>
-      <c r="G6">
-        <v>0.8092198853134716</v>
       </c>
       <c r="H6">
         <v>2.129084369258758</v>
@@ -747,10 +747,10 @@
         <v>0.6271429106953286</v>
       </c>
       <c r="N6">
-        <v>0.4998438009888689</v>
+        <v>0.6442414585966483</v>
       </c>
       <c r="O6">
-        <v>0.4998438009888689</v>
+        <v>0.6271429106953286</v>
       </c>
       <c r="P6">
         <v>0.4998438009888689</v>
@@ -771,10 +771,10 @@
         <v>16245802182</v>
       </c>
       <c r="V6">
-        <v>21419969152</v>
+        <v>15485301894</v>
       </c>
       <c r="W6">
-        <v>21419969152</v>
+        <v>16245802182</v>
       </c>
       <c r="X6">
         <v>21419969152</v>
@@ -794,16 +794,16 @@
         <v>2.817265245732752</v>
       </c>
       <c r="D7">
+        <v>0.2076904293943114</v>
+      </c>
+      <c r="E7">
+        <v>0.4662097981339481</v>
+      </c>
+      <c r="F7">
         <v>1.038452146971557</v>
       </c>
-      <c r="E7">
+      <c r="G7">
         <v>2.331048990669741</v>
-      </c>
-      <c r="F7">
-        <v>0.1066116253426391</v>
-      </c>
-      <c r="G7">
-        <v>0.1657096459632768</v>
       </c>
       <c r="H7">
         <v>0.5330581267131952</v>
@@ -824,10 +824,10 @@
         <v>0.6260699716191001</v>
       </c>
       <c r="N7">
-        <v>0.4128985902826828</v>
+        <v>0.6260699716191001</v>
       </c>
       <c r="O7">
-        <v>0.4128985902826828</v>
+        <v>0.6260699716191001</v>
       </c>
       <c r="P7">
         <v>0.4128985902826828</v>
@@ -848,10 +848,10 @@
         <v>1403512928</v>
       </c>
       <c r="V7">
-        <v>6471301295</v>
+        <v>1403512928</v>
       </c>
       <c r="W7">
-        <v>6471301295</v>
+        <v>1403512928</v>
       </c>
       <c r="X7">
         <v>6471301295</v>
@@ -871,16 +871,16 @@
         <v>2.486314796390639</v>
       </c>
       <c r="D8">
+        <v>1.508446806846264</v>
+      </c>
+      <c r="E8">
+        <v>1.052810667356595</v>
+      </c>
+      <c r="F8">
         <v>7.542234034231321</v>
       </c>
-      <c r="E8">
+      <c r="G8">
         <v>5.264053336782998</v>
-      </c>
-      <c r="F8">
-        <v>4.465091788871077</v>
-      </c>
-      <c r="G8">
-        <v>4.300625795639975</v>
       </c>
       <c r="H8">
         <v>22.32545894435539</v>
@@ -945,13 +945,10 @@
         <v>656.8122986162234</v>
       </c>
       <c r="E9">
+        <v>74.30184066874688</v>
+      </c>
+      <c r="G9">
         <v>371.5092033437344</v>
-      </c>
-      <c r="F9">
-        <v>2.445856528199673</v>
-      </c>
-      <c r="G9">
-        <v>11.09828147919903</v>
       </c>
       <c r="H9">
         <v>12.22928264099839</v>
@@ -965,11 +962,8 @@
       <c r="M9">
         <v>0.33845850318029</v>
       </c>
-      <c r="N9">
-        <v>0.3411401792246058</v>
-      </c>
       <c r="O9">
-        <v>0.3411401792246058</v>
+        <v>0.33845850318029</v>
       </c>
       <c r="P9">
         <v>0.3411401792246058</v>
@@ -983,11 +977,8 @@
       <c r="U9">
         <v>12096909667</v>
       </c>
-      <c r="V9">
-        <v>12956669707</v>
-      </c>
       <c r="W9">
-        <v>12956669707</v>
+        <v>12096909667</v>
       </c>
       <c r="X9">
         <v>12956669707</v>
@@ -1007,16 +998,16 @@
         <v>4.413888442968585</v>
       </c>
       <c r="D10">
+        <v>0.8575958516640255</v>
+      </c>
+      <c r="E10">
+        <v>1.051093146802996</v>
+      </c>
+      <c r="F10">
         <v>4.287979258320128</v>
       </c>
-      <c r="E10">
+      <c r="G10">
         <v>5.25546573401498</v>
-      </c>
-      <c r="F10">
-        <v>0.2268031936354624</v>
-      </c>
-      <c r="G10">
-        <v>0.2958470762350269</v>
       </c>
       <c r="H10">
         <v>1.134015968177312</v>
@@ -1037,10 +1028,10 @@
         <v>0.9487490577047336</v>
       </c>
       <c r="N10">
-        <v>0.8445431388982493</v>
+        <v>0.9678569072646386</v>
       </c>
       <c r="O10">
-        <v>0.8445431388982493</v>
+        <v>0.9487490577047336</v>
       </c>
       <c r="P10">
         <v>0.8445431388982493</v>
@@ -1061,10 +1052,10 @@
         <v>2032015673</v>
       </c>
       <c r="V10">
-        <v>2539331704</v>
+        <v>1986738567</v>
       </c>
       <c r="W10">
-        <v>2539331704</v>
+        <v>2032015673</v>
       </c>
       <c r="X10">
         <v>2539331704</v>

--- a/Sep19/pos_gains_and_pos_prof/Tables/region.xlsx
+++ b/Sep19/pos_gains_and_pos_prof/Tables/region.xlsx
@@ -34,16 +34,16 @@
     <t>GFA - Sales + Emp</t>
   </si>
   <si>
-    <t>IMF (20%) - Sales</t>
-  </si>
-  <si>
-    <t>IMF (20%) - Sales + Emp</t>
-  </si>
-  <si>
     <t>IMF - Sales</t>
   </si>
   <si>
     <t>IMF - Sales + Emp</t>
+  </si>
+  <si>
+    <t>OECD (20%) - Sales</t>
+  </si>
+  <si>
+    <t>OECD (20%) - Sales + Emp</t>
   </si>
   <si>
     <t>OECD - Sales</t>
@@ -563,22 +563,22 @@
         <v>1.67121259218078</v>
       </c>
       <c r="D4">
-        <v>0.1442535571439624</v>
+        <v>0.7212677857198116</v>
       </c>
       <c r="E4">
-        <v>0.2862580632476772</v>
+        <v>1.431290316238386</v>
       </c>
       <c r="F4">
-        <v>0.7212677857198116</v>
+        <v>0.08063624691411304</v>
       </c>
       <c r="G4">
-        <v>1.431290316238386</v>
+        <v>0.2245467997532441</v>
       </c>
       <c r="H4">
-        <v>0.5221063065672733</v>
+        <v>0.4031812345705657</v>
       </c>
       <c r="I4">
-        <v>0.7210505006811494</v>
+        <v>1.122733998766221</v>
       </c>
       <c r="J4">
         <v>0.2843045804931175</v>
@@ -593,16 +593,16 @@
         <v>0.2982077124743382</v>
       </c>
       <c r="N4">
-        <v>0.3248011131580942</v>
+        <v>0.2843045804931175</v>
       </c>
       <c r="O4">
-        <v>0.2982077124743382</v>
+        <v>0.2987152159529243</v>
       </c>
       <c r="P4">
-        <v>0.2817003622147342</v>
+        <v>0.2843045804931175</v>
       </c>
       <c r="Q4">
-        <v>0.2817003622147342</v>
+        <v>0.2987152159529243</v>
       </c>
       <c r="R4">
         <v>40382619918</v>
@@ -617,16 +617,16 @@
         <v>37431807140</v>
       </c>
       <c r="V4">
-        <v>30235087160</v>
+        <v>40382619918</v>
       </c>
       <c r="W4">
-        <v>37431807140</v>
+        <v>37273404592</v>
       </c>
       <c r="X4">
-        <v>66677809103</v>
+        <v>40382619918</v>
       </c>
       <c r="Y4">
-        <v>66677809103</v>
+        <v>37273404592</v>
       </c>
     </row>
     <row r="5" spans="1:25">
@@ -640,22 +640,22 @@
         <v>4.335630184562929</v>
       </c>
       <c r="D5">
-        <v>0.6761226210377156</v>
+        <v>3.380613105188575</v>
       </c>
       <c r="E5">
-        <v>0.7404358172653206</v>
+        <v>3.702179086326601</v>
       </c>
       <c r="F5">
-        <v>3.380613105188575</v>
+        <v>0.5211829223462506</v>
       </c>
       <c r="G5">
-        <v>3.702179086326601</v>
+        <v>0.582542213607173</v>
       </c>
       <c r="H5">
-        <v>1.878629475399659</v>
+        <v>2.605914611731255</v>
       </c>
       <c r="I5">
-        <v>2.0033712814401</v>
+        <v>2.912711068035866</v>
       </c>
       <c r="J5">
         <v>0.3249191959253084</v>
@@ -670,16 +670,16 @@
         <v>0.2955367085519889</v>
       </c>
       <c r="N5">
-        <v>0.2960286019796783</v>
+        <v>0.3249191959253084</v>
       </c>
       <c r="O5">
-        <v>0.2955367085519889</v>
+        <v>0.3243013018279837</v>
       </c>
       <c r="P5">
-        <v>0.3152860901172511</v>
+        <v>0.3249191959253084</v>
       </c>
       <c r="Q5">
-        <v>0.3152860901172511</v>
+        <v>0.3243013018279837</v>
       </c>
       <c r="R5">
         <v>68341277913</v>
@@ -694,16 +694,16 @@
         <v>66917200922</v>
       </c>
       <c r="V5">
-        <v>66666309306</v>
+        <v>68341277913</v>
       </c>
       <c r="W5">
-        <v>66917200922</v>
+        <v>68607173698</v>
       </c>
       <c r="X5">
-        <v>75243181211</v>
+        <v>68341277913</v>
       </c>
       <c r="Y5">
-        <v>75243181211</v>
+        <v>68607173698</v>
       </c>
     </row>
     <row r="6" spans="1:25">
@@ -717,22 +717,22 @@
         <v>13.43743147231456</v>
       </c>
       <c r="D6">
-        <v>1.054230044300623</v>
+        <v>5.271150221503113</v>
       </c>
       <c r="E6">
-        <v>2.123036393002244</v>
+        <v>10.61518196501122</v>
       </c>
       <c r="F6">
-        <v>5.271150221503113</v>
+        <v>0.7107595408137677</v>
       </c>
       <c r="G6">
-        <v>10.61518196501122</v>
+        <v>1.805474808010163</v>
       </c>
       <c r="H6">
-        <v>2.129084369258758</v>
+        <v>3.553797704068839</v>
       </c>
       <c r="I6">
-        <v>4.046099426567356</v>
+        <v>9.027374040050814</v>
       </c>
       <c r="J6">
         <v>0.6210036993701433</v>
@@ -747,16 +747,16 @@
         <v>0.6271429106953286</v>
       </c>
       <c r="N6">
-        <v>0.6442414585966483</v>
+        <v>0.6210036993701433</v>
       </c>
       <c r="O6">
         <v>0.6271429106953286</v>
       </c>
       <c r="P6">
-        <v>0.4998438009888689</v>
+        <v>0.6210036993701433</v>
       </c>
       <c r="Q6">
-        <v>0.4998438009888689</v>
+        <v>0.6271429106953286</v>
       </c>
       <c r="R6">
         <v>16282609381</v>
@@ -771,16 +771,16 @@
         <v>16245802182</v>
       </c>
       <c r="V6">
-        <v>15485301894</v>
+        <v>16282609381</v>
       </c>
       <c r="W6">
         <v>16245802182</v>
       </c>
       <c r="X6">
-        <v>21419969152</v>
+        <v>16282609381</v>
       </c>
       <c r="Y6">
-        <v>21419969152</v>
+        <v>16245802182</v>
       </c>
     </row>
     <row r="7" spans="1:25">
@@ -794,22 +794,22 @@
         <v>2.817265245732752</v>
       </c>
       <c r="D7">
-        <v>0.2076904293943114</v>
+        <v>1.038452146971557</v>
       </c>
       <c r="E7">
-        <v>0.4662097981339481</v>
+        <v>2.331048990669741</v>
       </c>
       <c r="F7">
-        <v>1.038452146971557</v>
+        <v>0.1200129005510292</v>
       </c>
       <c r="G7">
-        <v>2.331048990669741</v>
+        <v>0.378532269290666</v>
       </c>
       <c r="H7">
-        <v>0.5330581267131952</v>
+        <v>0.6000645027551462</v>
       </c>
       <c r="I7">
-        <v>0.8285482298163835</v>
+        <v>1.89266134645333</v>
       </c>
       <c r="J7">
         <v>0.6260699716191001</v>
@@ -830,10 +830,10 @@
         <v>0.6260699716191001</v>
       </c>
       <c r="P7">
-        <v>0.4128985902826828</v>
+        <v>0.6260699716191001</v>
       </c>
       <c r="Q7">
-        <v>0.4128985902826828</v>
+        <v>0.6260699716191001</v>
       </c>
       <c r="R7">
         <v>1403512928</v>
@@ -854,10 +854,10 @@
         <v>1403512928</v>
       </c>
       <c r="X7">
-        <v>6471301295</v>
+        <v>1403512928</v>
       </c>
       <c r="Y7">
-        <v>6471301295</v>
+        <v>1403512928</v>
       </c>
     </row>
     <row r="8" spans="1:25">
@@ -871,22 +871,22 @@
         <v>2.486314796390639</v>
       </c>
       <c r="D8">
-        <v>1.508446806846264</v>
+        <v>7.542234034231321</v>
       </c>
       <c r="E8">
-        <v>1.052810667356595</v>
+        <v>5.264053336782998</v>
       </c>
       <c r="F8">
-        <v>7.542234034231321</v>
+        <v>0.7897013765042615</v>
       </c>
       <c r="G8">
-        <v>5.264053336782998</v>
+        <v>0.3340652370145926</v>
       </c>
       <c r="H8">
-        <v>22.32545894435539</v>
+        <v>3.948506882521332</v>
       </c>
       <c r="I8">
-        <v>21.50312897819985</v>
+        <v>1.670326185072986</v>
       </c>
       <c r="J8">
         <v>0.2048529706690015</v>
@@ -945,16 +945,13 @@
         <v>656.8122986162234</v>
       </c>
       <c r="E9">
-        <v>74.30184066874688</v>
+        <v>371.5092033437344</v>
       </c>
       <c r="G9">
-        <v>371.5092033437344</v>
-      </c>
-      <c r="H9">
-        <v>12.22928264099839</v>
+        <v>88.25035209936431</v>
       </c>
       <c r="I9">
-        <v>55.4914073959952</v>
+        <v>441.2517604968218</v>
       </c>
       <c r="K9">
         <v>0.33845850318029</v>
@@ -965,11 +962,8 @@
       <c r="O9">
         <v>0.33845850318029</v>
       </c>
-      <c r="P9">
-        <v>0.3411401792246058</v>
-      </c>
       <c r="Q9">
-        <v>0.3411401792246058</v>
+        <v>0.33845850318029</v>
       </c>
       <c r="S9">
         <v>12096909667</v>
@@ -980,11 +974,8 @@
       <c r="W9">
         <v>12096909667</v>
       </c>
-      <c r="X9">
-        <v>12956669707</v>
-      </c>
       <c r="Y9">
-        <v>12956669707</v>
+        <v>12096909667</v>
       </c>
     </row>
     <row r="10" spans="1:25">
@@ -998,22 +989,22 @@
         <v>4.413888442968585</v>
       </c>
       <c r="D10">
-        <v>0.8575958516640255</v>
+        <v>4.287979258320128</v>
       </c>
       <c r="E10">
-        <v>1.051093146802996</v>
+        <v>5.25546573401498</v>
       </c>
       <c r="F10">
-        <v>4.287979258320128</v>
+        <v>0.2666786991281138</v>
       </c>
       <c r="G10">
-        <v>5.25546573401498</v>
+        <v>0.5930571185100388</v>
       </c>
       <c r="H10">
-        <v>1.134015968177312</v>
+        <v>1.33339349564057</v>
       </c>
       <c r="I10">
-        <v>1.479235381175135</v>
+        <v>2.965285592550194</v>
       </c>
       <c r="J10">
         <v>0.9678569072646386</v>
@@ -1031,13 +1022,13 @@
         <v>0.9678569072646386</v>
       </c>
       <c r="O10">
-        <v>0.9487490577047336</v>
+        <v>0.3698513140923141</v>
       </c>
       <c r="P10">
-        <v>0.8445431388982493</v>
+        <v>0.9678569072646386</v>
       </c>
       <c r="Q10">
-        <v>0.8445431388982493</v>
+        <v>0.3698513140923141</v>
       </c>
       <c r="R10">
         <v>1986738567</v>
@@ -1055,13 +1046,13 @@
         <v>1986738567</v>
       </c>
       <c r="W10">
-        <v>2032015673</v>
+        <v>1195614519</v>
       </c>
       <c r="X10">
-        <v>2539331704</v>
+        <v>1986738567</v>
       </c>
       <c r="Y10">
-        <v>2539331704</v>
+        <v>1195614519</v>
       </c>
     </row>
   </sheetData>
